--- a/TGA_FTIR_tools/settings/TGA_import_profiles.xlsx
+++ b/TGA_FTIR_tools/settings/TGA_import_profiles.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\GitHub\TGA-FTIR-hyphenation-tool-kit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UBA_Promotion\3_TGA_FTIR\TGA-FTIR-hyphenation-tool-kit\TGA_FTIR_tools\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53891091-697A-4A3C-821E-801792AEFD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FEC9B-75DC-48CD-9AA7-83EDCF143EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16BED0A0-EBC0-49CA-9959-1D7069DD5450}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="TGA" sheetId="1" r:id="rId1"/>
+    <sheet name="IR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Otto</t>
   </si>
@@ -82,18 +83,63 @@
   </si>
   <si>
     <t>Index,time,sample_temp,reference_temp,heat_flow</t>
+  </si>
+  <si>
+    <t>ThermoFisher</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>time,gas</t>
+  </si>
+  <si>
+    <t>Methode:\n\s*(?P&lt;method&gt;\S+)</t>
+  </si>
+  <si>
+    <t>Durchgeführt am(?P&lt;date&gt;\d{2}\.\d{2}\.\d{4})</t>
+  </si>
+  <si>
+    <t>Durchgeführt am.+(?P&lt;time&gt;\d{2}:\d{2}:\d{2})</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>re_method</t>
+  </si>
+  <si>
+    <t>re_date</t>
+  </si>
+  <si>
+    <t>re_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,8 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -432,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5A7A33-DB42-4949-886B-818D4B8527E3}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -448,10 +497,154 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CB0D81-37F1-43DE-8AC8-7AD26F9D8492}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -465,53 +658,27 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
